--- a/Figure_1_Fresh_weight/Data/Fresh_weight_helper.xlsx
+++ b/Figure_1_Fresh_weight/Data/Fresh_weight_helper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hung_\Sync\0_dinglab_private\phd\3_phd_2023_ulei_hoang_hung_nyugen\Bioinformatics\ETI_Paper\Fresh_weight_27_09_2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenhh/Sync2/Sync/PhD_Hung_2023/3_Bioinformatics/ETI_Paper/0_Github/ETI_Paper/Figure_1_Fresh_weight/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDF0DC0-AFFB-478B-9ADC-E38FD4E88320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE01993B-37C4-224D-B6B9-6570FA4285C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7900" yWindow="2160" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,13 +471,13 @@
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -488,7 +488,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -499,7 +499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -521,7 +521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -532,7 +532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -554,7 +554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,7 +565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -576,7 +576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -587,7 +587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -609,7 +609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -620,7 +620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,7 +631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -642,7 +642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -653,7 +653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -664,7 +664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -675,7 +675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -686,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -697,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -719,7 +719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,7 +730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -741,7 +741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -752,7 +752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -763,7 +763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -774,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -785,7 +785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -796,7 +796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -807,7 +807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -818,7 +818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -829,7 +829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,7 +840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -851,7 +851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,7 +862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -884,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -895,7 +895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -906,7 +906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -917,7 +917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -928,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -939,7 +939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -950,7 +950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -972,7 +972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -983,7 +983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -994,7 +994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>14</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>14</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>2</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>4</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>4</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>4</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>4</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>4</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>5</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>5</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>5</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>6</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>7</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>7</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>7</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>7</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>16</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>16</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>16</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>14</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>14</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>8</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>8</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>8</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>8</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>8</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>8</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>8</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>8</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>8</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>9</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>9</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>9</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>9</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>9</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>9</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>2</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>2</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>2</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>2</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>2</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>2</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>2</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>2</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>2</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>3</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>3</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>3</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>3</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>3</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>4</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>4</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>4</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>4</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>4</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>4</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>4</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>4</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>5</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>5</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>5</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>5</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>5</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>6</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>6</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>6</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>6</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>6</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>6</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>7</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>7</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>7</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>7</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>7</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>7</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>16</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>16</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>16</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>16</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>16</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>16</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>16</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>16</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>14</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>14</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>14</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>14</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>14</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>14</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>8</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>8</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>8</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>8</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>8</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>8</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>8</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>8</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>8</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>8</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>9</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>9</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>9</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>9</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>9</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>9</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>9</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>9</v>
       </c>
@@ -3545,22 +3545,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4966E31-9EBA-C04A-A00A-04F31272D8F9}">
   <dimension ref="A1:L278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3598,7 +3599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>2.4178117495042878E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>3.4722286081536064E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>3.9657140791910976E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>3.0592921437895926E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>2.5330398436805793E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>3.2502980864785595E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>3.1565170679088685E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -3924,7 +3925,7 @@
         <v>13</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> B9/$G$3</f>
         <v>0.84606821171946145</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3934,31 +3935,31 @@
         <v>24</v>
       </c>
       <c r="G9">
-        <f xml:space="preserve"> AVERAGE(B12:B14,B50:B55,B116:B123,B205:B213)</f>
-        <v>7.7696153846153873E-2</v>
+        <f xml:space="preserve"> AVERAGE(B8:B11,B50:B55,B116:B123,B205:B213)</f>
+        <v>7.7137037037037059E-2</v>
       </c>
       <c r="H9">
-        <f>_xlfn.STDEV.S(B12:B14,B50:B55,B116:B123,B205:B213)</f>
-        <v>1.3706421291328328E-2</v>
+        <f>_xlfn.STDEV.S(B8:B11,B50:B55,B116:B123,B205:B213)</f>
+        <v>1.3874690520405582E-2</v>
       </c>
       <c r="I9">
-        <f xml:space="preserve"> H9/SQRT(COUNT(B12:B14,B50:B55,B116:B123,B205:B213))</f>
-        <v>2.6880503702310294E-3</v>
+        <f xml:space="preserve"> H9/SQRT(COUNT(B8:B11,B50:B55,B116:B123,B205:B213))</f>
+        <v>2.6701854356263035E-3</v>
       </c>
       <c r="J9">
-        <f xml:space="preserve"> AVERAGE(D12:D14,D50:D55,D116:D123,D205:D213)</f>
-        <v>0.86495060450125705</v>
+        <f xml:space="preserve"> AVERAGE(D8:D11,D50:D55,D116:D123,D205:D213)</f>
+        <v>0.85872624977978673</v>
       </c>
       <c r="K9">
-        <f>_xlfn.STDEV.S(D12:D14,D50:D55,D116:D123,D205:D213)</f>
-        <v>0.15258641251352556</v>
+        <f>_xlfn.STDEV.S(D8:D11,D50:D55,D116:D123,D205:D213)</f>
+        <v>0.15445966574685044</v>
       </c>
       <c r="L9">
-        <f xml:space="preserve"> H9/SQRT(COUNT(D12:D14,D50:D55,D116:D123,D205:D213))</f>
-        <v>2.6880503702310294E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <f xml:space="preserve"> H9/SQRT(COUNT(D8:D11,D50:D55,D116:D123,D205:D213))</f>
+        <v>2.6701854356263035E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -4003,7 +4004,7 @@
         <v>9.0170352992870856E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>3.2068686123278515E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>2.8309346197423989E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>2.3634716980393618E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>0.83716223054346717</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>0.1750619322873658</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>0.19377924580236716</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>0.14643545279383427</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -4213,7 +4214,7 @@
         <v>0.87861271676300556</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>0.67382328654004942</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>0.90503715937241924</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>0.7270152248318188</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>0.9713206656438097</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>0.6503009559778119</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>0.90876903103977336</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>0.66328337070695154</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -4333,7 +4334,7 @@
         <v>0.85211849403989137</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -4348,7 +4349,7 @@
         <v>4.5299298939421181E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>5.8241955779255811E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>6.4713284199173118E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>0.81646593564623415</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>0.84127269458925047</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -4423,7 +4424,7 @@
         <v>0.86931511774222558</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>0.78201435756351301</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>0.5849632463568758</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -4468,7 +4469,7 @@
         <v>0.67987791772342354</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>0.52822077977904835</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>0.81296479387869147</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>0.7459055151958045</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>0.10573055424959515</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>7.4700935067648744E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>9.423810270072612E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>7.1253199602988038E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>6.5506973828553527E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>0.10917828971425586</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>0.8757248080238208</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>0.86768009193961237</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>1.027425168468892</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>0.98950007835762421</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>1.1722300579846419</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>0.85497419289545573</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>0.73363019937253304</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>1.0765104746483147</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>1.0586985122963262</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>2</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>0.95961947171338913</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>0.94403400465539911</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>0.99190365347636866</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>1.1243801234692843</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -4813,7 +4814,7 @@
         <v>1.0319805687683432</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>1.1600040481732616</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>1.0609250075903247</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -4858,7 +4859,7 @@
         <v>7.5970272502064395E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>0.19377924580236716</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>0.30828516377649323</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>0.25543627855766576</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>0.18607211670795482</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -4933,7 +4934,7 @@
         <v>1.1120286264794934</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>1.0382603908615466</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>1.3366363886595098</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -4978,7 +4979,7 @@
         <v>1.0316542802091935</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>0.84857783547739885</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>0.91348990912309691</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>0.61961524843620908</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>0.99846571462291978</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>0.71993390770683341</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>0.902867933435619</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>0.96659978756048626</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>1.0940634958102207</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -5113,7 +5114,7 @@
         <v>0.883984421102325</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -5128,7 +5129,7 @@
         <v>1.0869821786852354</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>8.1970159985619281E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -5158,7 +5159,7 @@
         <v>7.33417220923962E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>6.2556174725867345E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>5.3927736832644263E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>9.5991371562106784E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>9.0598597878842363E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>14</v>
       </c>
@@ -5233,7 +5234,7 @@
         <v>1.0375696566600756</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>14</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>0.89520043142189476</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>0.98687758403739001</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>14</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>1.2166097429444545</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>0.87486566650904873</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>8</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>0.88518247861410826</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>0.85939044835145939</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>0.79233116966857242</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>8</v>
       </c>
@@ -5353,7 +5354,7 @@
         <v>0.84391523019387005</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>8</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>0.90581610282422742</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>0.71082835403860212</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -5398,7 +5399,7 @@
         <v>1.0275544856639298</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>1.1678631302927396</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -5428,7 +5429,7 @@
         <v>1.0564415595580967</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>0.99866741176976315</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -5458,7 +5459,7 @@
         <v>1.1657997678717278</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>6.2059238363892807E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>4.0223580421041634E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
@@ -5503,7 +5504,7 @@
         <v>6.0909993209005905E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>6.7805464138327332E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>0</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>5.2865277124797577E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>5.6313012589458283E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>0</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>7.3551689912761856E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>1.0136342266102492</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>1.0297236587786658</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>0.86423235647495178</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>0.89066499503735053</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -5638,7 +5639,7 @@
         <v>0.90675442720576716</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>1.2607219349109335</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>1.1147678002402968</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>0.81601052525048068</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>2</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>0.7102519987855479</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>1.0041493775933608</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -5728,7 +5729,7 @@
         <v>0.75700839995951819</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>0.84161522113146425</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>0.6935532840805585</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>2</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>0.67128833114057274</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>2</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>0.98745066288837147</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
@@ -5803,7 +5804,7 @@
         <v>1.2924805181661772</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>1.1689100293492558</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>1.0241878352393481</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>0.73474344701953231</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>0.95739297641939047</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>0.89839085112842809</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>1.1399655905272745</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>1.0698309887663191</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>4</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>0.1750619322873658</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>4</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>0.16845582163501235</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>4</v>
       </c>
@@ -5953,7 +5954,7 @@
         <v>0.2080924855491329</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>4</v>
       </c>
@@ -5968,7 +5969,7 @@
         <v>0.13652628681530413</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>4</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>0.17285989540324795</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>4</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>0.22130470685383977</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>4</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>0.17175887696118905</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -6028,7 +6029,7 @@
         <v>1.0184420589044865</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>0.89072391962565356</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>5</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>0.77952105697770424</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>5</v>
       </c>
@@ -6073,7 +6074,7 @@
         <v>0.6936416184971097</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>5</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>1.0316542802091935</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>0.86209744013212197</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>1.2981007431874483</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>6</v>
       </c>
@@ -6133,7 +6134,7 @@
         <v>0.76360202997757576</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>0.68806798064439978</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>0.73999763956095843</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -6178,7 +6179,7 @@
         <v>0.88870529918564856</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -6193,7 +6194,7 @@
         <v>0.59010976041543728</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>0.92057122624808219</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>7</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>0.96896022660214809</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>7</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>1.0940634958102207</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>7</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>0.84267673787324449</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>7</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>1.006727251268736</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>7</v>
       </c>
@@ -6283,7 +6284,7 @@
         <v>0.9713206656438097</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>7</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>0.92529210433140563</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>7</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>1.0385931783311695</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>16</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>6.2556174725867345E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>16</v>
       </c>
@@ -6343,7 +6344,7 @@
         <v>5.9320510515908684E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>16</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>5.8241955779255811E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>16</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>5.1770627359338489E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>16</v>
       </c>
@@ -6388,7 +6389,7 @@
         <v>5.500629156929715E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>16</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>6.4713284199173118E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>16</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>3.7749415782850987E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
@@ -6433,7 +6434,7 @@
         <v>1.100125831385943</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>14</v>
       </c>
@@ -6448,7 +6449,7 @@
         <v>1.0494337587632574</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>14</v>
       </c>
@@ -6463,7 +6464,7 @@
         <v>0.98687758403739001</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>14</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>0.95128527772784477</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>14</v>
       </c>
@@ -6493,7 +6494,7 @@
         <v>1.1389538019054468</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>8</v>
       </c>
@@ -6508,7 +6509,7 @@
         <v>0.74796887761681641</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
@@ -6523,7 +6524,7 @@
         <v>0.65099084382925676</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>8</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>0.75106392124833432</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>8</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>1.002794136611787</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>8</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>0.64995916261875086</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>8</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>0.58393156514636979</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>8</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>0.77685595151098319</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>8</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>0.83978850535184635</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>8</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v>0.71082835403860212</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>8</v>
       </c>
@@ -6643,7 +6644,7 @@
         <v>0.52512573614753044</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>9</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>1.0739801401366977</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>9</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>0.90787946524523921</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>9</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>1.005889180243305</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>9</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>1.0987404891888406</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>9</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>1.1441344624511027</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>9</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>0.99144564329622153</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>9</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>1.1265958818725015</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>9</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>1.0739801401366977</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>0</v>
       </c>
@@ -6778,7 +6779,7 @@
         <v>7.585018022253566E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>0</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>5.0566786815023773E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>4.9417541660136864E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>0</v>
       </c>
@@ -6823,7 +6824,7 @@
         <v>5.4014522279684486E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>5.6313012589458283E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>0</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>8.0447160842083268E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>0</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>4.8268296505249955E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>0</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>5.1716031969910668E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>0</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>4.5969806195476158E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>0.98375385258318959</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1</v>
       </c>
@@ -6928,7 +6929,7 @@
         <v>1.0297236587786658</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1</v>
       </c>
@@ -6943,7 +6944,7 @@
         <v>0.9343363109230528</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>1.1630360967455466</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1</v>
       </c>
@@ -6973,7 +6974,7 @@
         <v>1.1308572324087134</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1</v>
       </c>
@@ -6988,7 +6989,7 @@
         <v>1.2021104320117013</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>1.0308729039335527</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>2</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>1.0475660358263332</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>2</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>1.1611172958202609</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>2</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>0.97965792935937634</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>2</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>0.79263232466349542</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>2</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>0.52879263232466345</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>2</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>0.99969638700536367</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>2</v>
       </c>
@@ -7108,7 +7109,7 @@
         <v>0.93735451877340337</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>2</v>
       </c>
@@ -7123,7 +7124,7 @@
         <v>0.81601052525048068</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>2</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>0.85497419289545573</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>3</v>
       </c>
@@ -7153,7 +7154,7 @@
         <v>0.9863374152413722</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>3</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>1.1555510575852646</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>3</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>0.9106365752454203</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>3</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>0.6935532840805585</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>3</v>
       </c>
@@ -7213,7 +7214,7 @@
         <v>1.3203117093411596</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>3</v>
       </c>
@@ -7228,7 +7229,7 @@
         <v>1.0163951017103532</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>4</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>0.15083952656206989</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>4</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>0.17065785851913015</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>4</v>
       </c>
@@ -7273,7 +7274,7 @@
         <v>0.19598128268648496</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>4</v>
       </c>
@@ -7288,7 +7289,7 @@
         <v>0.1739609138453069</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>4</v>
       </c>
@@ -7303,7 +7304,7 @@
         <v>0.16184971098265893</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>4</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>0.23781998348472333</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>4</v>
       </c>
@@ -7333,7 +7334,7 @@
         <v>0.14863748967795207</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>4</v>
       </c>
@@ -7348,7 +7349,7 @@
         <v>0.25543627855766576</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>5</v>
       </c>
@@ -7363,7 +7364,7 @@
         <v>1.1021194605009632</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>5</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>1.1021194605009632</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>5</v>
       </c>
@@ -7393,7 +7394,7 @@
         <v>0.93036058353977413</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>5</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>1.0118359482521331</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>5</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>0.89622901183594805</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>5</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>1.4071015689512796</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>6</v>
       </c>
@@ -7453,7 +7454,7 @@
         <v>1.1188481057476689</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>0.92293166528974391</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>6</v>
       </c>
@@ -7483,7 +7484,7 @@
         <v>0.97014044612297878</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>6</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>0.80490971320665639</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>6</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>1.3419095951847042</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>6</v>
       </c>
@@ -7528,7 +7529,7 @@
         <v>0.97722176324796406</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>6</v>
       </c>
@@ -7543,7 +7544,7 @@
         <v>0.70341083441520125</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>7</v>
       </c>
@@ -7558,7 +7559,7 @@
         <v>1.090522837247728</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>7</v>
       </c>
@@ -7573,7 +7574,7 @@
         <v>1.0551162516228019</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>7</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>0.99728549510208908</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>7</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>1.0846217396435736</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>7</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>0.9606986899563319</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>7</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>1.5083205476218577</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>16</v>
       </c>
@@ -7648,7 +7649,7 @@
         <v>5.608484630595003E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>16</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>5.9320510515908684E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>16</v>
       </c>
@@ -7678,7 +7679,7 @@
         <v>5.1770627359338489E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>16</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>3.5592306309545213E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>16</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>6.0399065252561571E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>16</v>
       </c>
@@ -7723,7 +7724,7 @@
         <v>4.2063634729462521E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>16</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>5.9320510515908684E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>16</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>4.0985079992809641E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>14</v>
       </c>
@@ -7768,7 +7769,7 @@
         <v>0.93079273773144</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>14</v>
       </c>
@@ -7783,7 +7784,7 @@
         <v>1.0267841092935468</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>14</v>
       </c>
@@ -7798,7 +7799,7 @@
         <v>0.94157828509796881</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>14</v>
       </c>
@@ -7813,7 +7814,7 @@
         <v>0.92971418299478703</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>14</v>
       </c>
@@ -7828,7 +7829,7 @@
         <v>1.0893402840194142</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>14</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>1.1918029840014381</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>8</v>
       </c>
@@ -7858,7 +7859,7 @@
         <v>0.96152688819154886</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>8</v>
       </c>
@@ -7873,7 +7874,7 @@
         <v>0.95327343850750113</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>8</v>
       </c>
@@ -7888,7 +7889,7 @@
         <v>0.74281047156428659</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>8</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>0.84185186777285825</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>8</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>1.0327128917164596</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>8</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>0.77788763272148909</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>8</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>1.0688217340841679</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>8</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>0.70670162919657831</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>8</v>
       </c>
@@ -7978,7 +7979,7 @@
         <v>0.85526372350943558</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>8</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>0.84804195503589386</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>9</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>0.85526372350943558</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>9</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>0.99350900571723333</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>9</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>0.87899239135107254</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>9</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>0.86145381077247141</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>9</v>
       </c>
@@ -8068,7 +8069,7 @@
         <v>1.0554098783475907</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>9</v>
       </c>
@@ -8083,7 +8084,7 @@
         <v>1.2318273653441087</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>9</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>0.95430511971800713</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>9</v>
       </c>
